--- a/DataFiles_Excel/BubbleChart/bubble_non_discretionary.xlsx
+++ b/DataFiles_Excel/BubbleChart/bubble_non_discretionary.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jim.ide\Desktop\annual-report-html2excel\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Engineering Projects\Annual Report\2016-html2excel\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -103,7 +103,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,8 +239,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -588,32 +603,35 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -971,18 +989,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" customWidth="1"/>
-    <col min="6" max="6" width="28.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" customWidth="1"/>
+    <col min="6" max="6" width="31.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.5">
@@ -990,25 +1009,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -1086,7 +1105,7 @@
       <c r="E9" s="3">
         <v>0</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="8">
         <v>-3</v>
       </c>
     </row>
@@ -1106,7 +1125,7 @@
       <c r="E10" s="3">
         <v>0</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1126,7 +1145,7 @@
       <c r="E11" s="3">
         <v>0</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1146,7 +1165,7 @@
       <c r="E12" s="4">
         <v>0.01</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="8">
         <v>65</v>
       </c>
     </row>
@@ -1166,7 +1185,7 @@
       <c r="E13" s="4">
         <v>0.14499999999999999</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="8">
         <v>970</v>
       </c>
     </row>
@@ -1186,7 +1205,7 @@
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1206,7 +1225,7 @@
       <c r="E15" s="4">
         <v>1.2E-2</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="8">
         <v>77</v>
       </c>
     </row>
@@ -1226,7 +1245,7 @@
       <c r="E16" s="4">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="8">
         <v>236</v>
       </c>
     </row>
@@ -1240,13 +1259,13 @@
       <c r="C17" s="3">
         <v>0</v>
       </c>
-      <c r="D17" s="7">
-        <v>0</v>
-      </c>
-      <c r="E17" s="7">
-        <v>0</v>
-      </c>
-      <c r="F17" s="7">
+      <c r="D17" s="8">
+        <v>0</v>
+      </c>
+      <c r="E17" s="8">
+        <v>0</v>
+      </c>
+      <c r="F17" s="8">
         <v>-6</v>
       </c>
     </row>
@@ -1266,7 +1285,7 @@
       <c r="E18" s="3">
         <v>0</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1286,7 +1305,7 @@
       <c r="E19" s="3">
         <v>0</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1306,7 +1325,7 @@
       <c r="E20" s="3">
         <v>0</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1326,7 +1345,7 @@
       <c r="E21" s="4">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="8">
         <v>237</v>
       </c>
     </row>

--- a/DataFiles_Excel/BubbleChart/bubble_non_discretionary.xlsx
+++ b/DataFiles_Excel/BubbleChart/bubble_non_discretionary.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Work\2016 Annual Report\TaggsAR2016-master\DataFiles_Excel\BubbleChart\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="13700" tabRatio="500"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="25125" windowHeight="13695" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -103,7 +108,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -129,6 +134,13 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -161,9 +173,6 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="6" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -183,12 +192,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -516,44 +536,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" customWidth="1"/>
-    <col min="5" max="5" width="21.1640625" customWidth="1"/>
+    <col min="1" max="1" width="11.375" customWidth="1"/>
+    <col min="2" max="2" width="18.375" customWidth="1"/>
+    <col min="3" max="3" width="20.375" customWidth="1"/>
+    <col min="4" max="4" width="23.125" customWidth="1"/>
+    <col min="5" max="5" width="21.125" customWidth="1"/>
     <col min="6" max="6" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30">
+    <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28" customHeight="1">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="9" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -573,27 +595,27 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>0.1</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>40897984902</v>
       </c>
       <c r="E7" s="3">
         <v>0.48</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>3211</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
@@ -603,95 +625,97 @@
       <c r="C8" s="3">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>1593999535</v>
       </c>
       <c r="E8" s="3">
         <v>0.28399999999999997</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <v>1902</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="4">
-        <v>0</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0</v>
-      </c>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="4">
-        <v>0</v>
-      </c>
-      <c r="C10" s="4">
-        <v>0</v>
-      </c>
-      <c r="D10" s="5">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0</v>
-      </c>
-      <c r="F10" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="4">
-        <v>0</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0</v>
-      </c>
-      <c r="D11" s="5">
-        <v>0</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0</v>
-      </c>
-      <c r="F11" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="3">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="C12" s="4">
-        <v>0</v>
-      </c>
-      <c r="D12" s="5">
+      <c r="C12" s="3">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="D12" s="4">
         <v>146178840</v>
       </c>
       <c r="E12" s="3">
         <v>0.01</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="7">
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
@@ -701,37 +725,37 @@
       <c r="C13" s="3">
         <v>0.88300000000000001</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>360643028173</v>
       </c>
       <c r="E13" s="3">
         <v>0.14499999999999999</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="7">
         <v>970</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="4">
-        <v>0</v>
-      </c>
-      <c r="C14" s="4">
-        <v>0</v>
-      </c>
-      <c r="D14" s="5">
-        <v>0</v>
-      </c>
-      <c r="E14" s="4">
-        <v>0</v>
-      </c>
-      <c r="F14" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="B14" s="3">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
@@ -741,17 +765,17 @@
       <c r="C15" s="3">
         <v>1E-3</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>535085245</v>
       </c>
       <c r="E15" s="3">
         <v>1.2E-2</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="7">
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
@@ -761,95 +785,97 @@
       <c r="C16" s="3">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>2253188628</v>
       </c>
       <c r="E16" s="3">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="7">
         <v>236</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="4">
-        <v>0</v>
-      </c>
-      <c r="C17" s="4">
-        <v>0</v>
-      </c>
-      <c r="D17" s="8">
-        <v>0</v>
-      </c>
-      <c r="E17" s="8">
-        <v>0</v>
-      </c>
-      <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="B17" s="3">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="4">
-        <v>0</v>
-      </c>
-      <c r="C18" s="4">
-        <v>0</v>
-      </c>
-      <c r="D18" s="5">
-        <v>0</v>
-      </c>
-      <c r="E18" s="4">
-        <v>0</v>
-      </c>
-      <c r="F18" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="B18" s="3">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="4">
-        <v>0</v>
-      </c>
-      <c r="C19" s="4">
-        <v>0</v>
-      </c>
-      <c r="D19" s="5">
-        <v>0</v>
-      </c>
-      <c r="E19" s="4">
-        <v>0</v>
-      </c>
-      <c r="F19" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="B19" s="3">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="4">
-        <v>0</v>
-      </c>
-      <c r="C20" s="4">
-        <v>0</v>
-      </c>
-      <c r="D20" s="5">
-        <v>0</v>
-      </c>
-      <c r="E20" s="4">
-        <v>0</v>
-      </c>
-      <c r="F20" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="B20" s="3">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
@@ -859,27 +885,33 @@
       <c r="C21" s="3">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="4">
         <v>2361358555</v>
       </c>
       <c r="E21" s="3">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="7">
         <v>234</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="5">
+      <c r="B22" s="11">
+        <v>0.13</v>
+      </c>
+      <c r="C22" s="11">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4">
         <v>408430823878</v>
       </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="6">
+      <c r="E22" s="11">
+        <v>1</v>
+      </c>
+      <c r="F22" s="5">
         <v>6694</v>
       </c>
     </row>
@@ -889,6 +921,7 @@
     <mergeCell ref="A3:F3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
